--- a/cost.xlsx
+++ b/cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sentry\Documents\Stanford.9\CS 230\image-outpainting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3141F822-A016-4921-BA15-F621C6315262}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3EBD6821-272A-44D1-A852-CD27F19FE8C2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{C5E310BA-986E-4C9E-A066-4D9D1071D560}"/>
   </bookViews>
@@ -451,7 +451,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,11 +552,11 @@
         <v>22.6</v>
       </c>
       <c r="M2" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N2">
         <f>D2*L2*2/M2/1000</f>
-        <v>102.83</v>
+        <v>51.414999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sentry\Documents\Stanford.9\CS 230\image-outpainting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3EBD6821-272A-44D1-A852-CD27F19FE8C2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CB101D68-2AC4-4E04-9563-5395058331F9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{C5E310BA-986E-4C9E-A066-4D9D1071D560}"/>
   </bookViews>
@@ -63,10 +63,10 @@
     <t>img_size (KB)</t>
   </si>
   <si>
-    <t>SAVE_INTV</t>
-  </si>
-  <si>
     <t>img_size (MB)</t>
+  </si>
+  <si>
+    <t>INTV_PRINT</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,10 +501,10 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -549,14 +549,14 @@
         <v>182000</v>
       </c>
       <c r="L2">
-        <v>22.6</v>
+        <v>30</v>
       </c>
       <c r="M2" s="1">
         <v>200</v>
       </c>
       <c r="N2">
-        <f>D2*L2*2/M2/1000</f>
-        <v>51.414999999999999</v>
+        <f>D2*L2*11/M2/1000</f>
+        <v>375.375</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sentry\Documents\Stanford.9\CS 230\image-outpainting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CB101D68-2AC4-4E04-9563-5395058331F9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C4B8076F-CAEE-4994-88CE-57AE680A6EBD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{C5E310BA-986E-4C9E-A066-4D9D1071D560}"/>
   </bookViews>
@@ -451,7 +451,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -561,13 +561,13 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>30</v>
+        <v>3000</v>
       </c>
       <c r="D3">
         <f>C3*A3/B3</f>
@@ -578,15 +578,15 @@
       </c>
       <c r="F3">
         <f>(16/B3) *E3</f>
-        <v>3.2</v>
+        <v>32</v>
       </c>
       <c r="G3">
         <f>D3/F3</f>
-        <v>937.5</v>
+        <v>93.75</v>
       </c>
       <c r="H3">
         <f>G3/3600</f>
-        <v>0.26041666666666669</v>
+        <v>2.6041666666666668E-2</v>
       </c>
     </row>
   </sheetData>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sentry\Documents\Stanford.9\CS 230\image-outpainting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C4B8076F-CAEE-4994-88CE-57AE680A6EBD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{15869F67-4A77-46B7-A831-92075CA0A7E8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{C5E310BA-986E-4C9E-A066-4D9D1071D560}"/>
   </bookViews>
@@ -448,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F72ABF6-71E9-4FB7-B31B-045BB22C01F1}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,7 +459,7 @@
     <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" customWidth="1"/>
     <col min="6" max="6" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -589,6 +589,139 @@
         <v>2.6041666666666668E-2</v>
       </c>
     </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D4">
+        <f>C4*A4/B4</f>
+        <v>5000</v>
+      </c>
+      <c r="E4">
+        <f>10/16</f>
+        <v>0.625</v>
+      </c>
+      <c r="F4">
+        <f>(16/B4) *E4</f>
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <f>D4/F4</f>
+        <v>500</v>
+      </c>
+      <c r="H4">
+        <f>G4/3600</f>
+        <v>0.1388888888888889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>36400</v>
+      </c>
+      <c r="B5" s="1">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <f>C5*A5/B5</f>
+        <v>227500</v>
+      </c>
+      <c r="E5">
+        <f>10/16</f>
+        <v>0.625</v>
+      </c>
+      <c r="F5">
+        <f>(16/B5) *E5</f>
+        <v>0.625</v>
+      </c>
+      <c r="G5">
+        <f>D5/F5</f>
+        <v>364000</v>
+      </c>
+      <c r="H5">
+        <f>G5/3600</f>
+        <v>101.11111111111111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>36400</v>
+      </c>
+      <c r="B6" s="1">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <f>C6*A6/B6</f>
+        <v>56875</v>
+      </c>
+      <c r="E6">
+        <f>10/16</f>
+        <v>0.625</v>
+      </c>
+      <c r="F6">
+        <f>(16/B6) *E6</f>
+        <v>0.625</v>
+      </c>
+      <c r="G6">
+        <f>D6/F6</f>
+        <v>91000</v>
+      </c>
+      <c r="H6">
+        <f>G6/3600</f>
+        <v>25.277777777777779</v>
+      </c>
+      <c r="I6">
+        <v>20000</v>
+      </c>
+      <c r="J6">
+        <v>4000</v>
+      </c>
+      <c r="K6">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>36400</v>
+      </c>
+      <c r="B7" s="1">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1">
+        <v>24.18</v>
+      </c>
+      <c r="D7">
+        <f>C7*A7/B7</f>
+        <v>55009.5</v>
+      </c>
+      <c r="E7">
+        <f>200/160</f>
+        <v>1.25</v>
+      </c>
+      <c r="F7">
+        <f>(16/B7) *E7</f>
+        <v>1.25</v>
+      </c>
+      <c r="G7">
+        <f>D7/F7</f>
+        <v>44007.6</v>
+      </c>
+      <c r="H7">
+        <f>G7/3600</f>
+        <v>12.224333333333332</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cost.xlsx
+++ b/cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sentry\Documents\Stanford.9\CS 230\image-outpainting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{15869F67-4A77-46B7-A831-92075CA0A7E8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EA34D6DC-07FC-4B28-BADC-1D209F2531CF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{C5E310BA-986E-4C9E-A066-4D9D1071D560}"/>
   </bookViews>
@@ -451,7 +451,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -518,22 +518,22 @@
         <v>100</v>
       </c>
       <c r="D2">
-        <f>C2*A2/B2</f>
+        <f t="shared" ref="D2:D7" si="0">C2*A2/B2</f>
         <v>227500</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2">
-        <f>(16/B2) *E2</f>
+        <f t="shared" ref="F2:F7" si="1">(16/B2) *E2</f>
         <v>2</v>
       </c>
       <c r="G2">
-        <f>D2/F2</f>
+        <f t="shared" ref="G2:G7" si="2">D2/F2</f>
         <v>113750</v>
       </c>
       <c r="H2">
-        <f>G2/3600</f>
+        <f t="shared" ref="H2:H7" si="3">G2/3600</f>
         <v>31.597222222222221</v>
       </c>
       <c r="I2">
@@ -570,22 +570,22 @@
         <v>3000</v>
       </c>
       <c r="D3">
-        <f>C3*A3/B3</f>
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <f>(16/B3) *E3</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="G3">
-        <f>D3/F3</f>
+        <f t="shared" si="2"/>
         <v>93.75</v>
       </c>
       <c r="H3">
-        <f>G3/3600</f>
+        <f t="shared" si="3"/>
         <v>2.6041666666666668E-2</v>
       </c>
     </row>
@@ -600,7 +600,7 @@
         <v>5000</v>
       </c>
       <c r="D4">
-        <f>C4*A4/B4</f>
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
       <c r="E4">
@@ -608,15 +608,15 @@
         <v>0.625</v>
       </c>
       <c r="F4">
-        <f>(16/B4) *E4</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G4">
-        <f>D4/F4</f>
+        <f t="shared" si="2"/>
         <v>500</v>
       </c>
       <c r="H4">
-        <f>G4/3600</f>
+        <f t="shared" si="3"/>
         <v>0.1388888888888889</v>
       </c>
     </row>
@@ -631,7 +631,7 @@
         <v>100</v>
       </c>
       <c r="D5">
-        <f>C5*A5/B5</f>
+        <f t="shared" si="0"/>
         <v>227500</v>
       </c>
       <c r="E5">
@@ -639,15 +639,15 @@
         <v>0.625</v>
       </c>
       <c r="F5">
-        <f>(16/B5) *E5</f>
+        <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
       <c r="G5">
-        <f>D5/F5</f>
+        <f t="shared" si="2"/>
         <v>364000</v>
       </c>
       <c r="H5">
-        <f>G5/3600</f>
+        <f t="shared" si="3"/>
         <v>101.11111111111111</v>
       </c>
     </row>
@@ -659,27 +659,26 @@
         <v>16</v>
       </c>
       <c r="C6" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <f>C6*A6/B6</f>
-        <v>56875</v>
+        <f t="shared" si="0"/>
+        <v>63700</v>
       </c>
       <c r="E6">
-        <f>10/16</f>
-        <v>0.625</v>
+        <v>1.25</v>
       </c>
       <c r="F6">
-        <f>(16/B6) *E6</f>
-        <v>0.625</v>
+        <f t="shared" si="1"/>
+        <v>1.25</v>
       </c>
       <c r="G6">
-        <f>D6/F6</f>
-        <v>91000</v>
+        <f t="shared" si="2"/>
+        <v>50960</v>
       </c>
       <c r="H6">
-        <f>G6/3600</f>
-        <v>25.277777777777779</v>
+        <f t="shared" si="3"/>
+        <v>14.155555555555555</v>
       </c>
       <c r="I6">
         <v>20000</v>
@@ -702,7 +701,7 @@
         <v>24.18</v>
       </c>
       <c r="D7">
-        <f>C7*A7/B7</f>
+        <f t="shared" si="0"/>
         <v>55009.5</v>
       </c>
       <c r="E7">
@@ -710,15 +709,15 @@
         <v>1.25</v>
       </c>
       <c r="F7">
-        <f>(16/B7) *E7</f>
+        <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
       <c r="G7">
-        <f>D7/F7</f>
+        <f t="shared" si="2"/>
         <v>44007.6</v>
       </c>
       <c r="H7">
-        <f>G7/3600</f>
+        <f t="shared" si="3"/>
         <v>12.224333333333332</v>
       </c>
     </row>
